--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Wnt1-Fzd4.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Wnt1-Fzd4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,16 +76,16 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>FAPs</t>
+  </si>
+  <si>
+    <t>Wnt1</t>
+  </si>
+  <si>
+    <t>Fzd4</t>
+  </si>
+  <si>
     <t>ECs</t>
-  </si>
-  <si>
-    <t>FAPs</t>
-  </si>
-  <si>
-    <t>Wnt1</t>
-  </si>
-  <si>
-    <t>Fzd4</t>
   </si>
   <si>
     <t>MuSCs</t>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,61 +519,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" t="s">
         <v>22</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>23</v>
       </c>
-      <c r="D2" t="s">
-        <v>20</v>
-      </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.027123</v>
+        <v>0.3532066666666667</v>
       </c>
       <c r="H2">
-        <v>0.08136900000000001</v>
+        <v>1.05962</v>
       </c>
       <c r="I2">
-        <v>0.07131444737854617</v>
+        <v>1</v>
       </c>
       <c r="J2">
-        <v>0.07131444737854617</v>
+        <v>1</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>13.57958433333333</v>
+        <v>28.22405966666667</v>
       </c>
       <c r="N2">
-        <v>40.738753</v>
+        <v>84.672179</v>
       </c>
       <c r="O2">
-        <v>0.2289698008477291</v>
+        <v>0.3816548478108986</v>
       </c>
       <c r="P2">
-        <v>0.2289698008477291</v>
+        <v>0.3816548478108986</v>
       </c>
       <c r="Q2">
-        <v>0.3683190658730001</v>
+        <v>9.968926034664443</v>
       </c>
       <c r="R2">
-        <v>3.314871592857001</v>
+        <v>89.72033431198</v>
       </c>
       <c r="S2">
-        <v>0.01632885481383157</v>
+        <v>0.3816548478108986</v>
       </c>
       <c r="T2">
-        <v>0.01632885481383157</v>
+        <v>0.3816548478108986</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,31 +581,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" t="s">
         <v>22</v>
       </c>
-      <c r="C3" t="s">
-        <v>23</v>
-      </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.027123</v>
+        <v>0.3532066666666667</v>
       </c>
       <c r="H3">
-        <v>0.08136900000000001</v>
+        <v>1.05962</v>
       </c>
       <c r="I3">
-        <v>0.07131444737854617</v>
+        <v>1</v>
       </c>
       <c r="J3">
-        <v>0.07131444737854617</v>
+        <v>1</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -617,25 +617,25 @@
         <v>19.768727</v>
       </c>
       <c r="N3">
-        <v>59.30618100000001</v>
+        <v>59.306181</v>
       </c>
       <c r="O3">
-        <v>0.3333269541315949</v>
+        <v>0.2673191094302723</v>
       </c>
       <c r="P3">
-        <v>0.3333269541315949</v>
+        <v>0.2673191094302723</v>
       </c>
       <c r="Q3">
-        <v>0.5361871824210002</v>
+        <v>6.982446167913333</v>
       </c>
       <c r="R3">
-        <v>4.825684641789001</v>
+        <v>62.84201551122</v>
       </c>
       <c r="S3">
-        <v>0.02377102753026869</v>
+        <v>0.2673191094302723</v>
       </c>
       <c r="T3">
-        <v>0.0237710275302687</v>
+        <v>0.2673191094302723</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -643,31 +643,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" t="s">
         <v>22</v>
-      </c>
-      <c r="C4" t="s">
-        <v>23</v>
       </c>
       <c r="D4" t="s">
         <v>24</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.027123</v>
+        <v>0.3532066666666667</v>
       </c>
       <c r="H4">
-        <v>0.08136900000000001</v>
+        <v>1.05962</v>
       </c>
       <c r="I4">
-        <v>0.07131444737854617</v>
+        <v>1</v>
       </c>
       <c r="J4">
-        <v>0.07131444737854617</v>
+        <v>1</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,214 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>25.95900466666666</v>
+        <v>25.95900466666667</v>
       </c>
       <c r="N4">
-        <v>77.87701399999999</v>
+        <v>77.877014</v>
       </c>
       <c r="O4">
-        <v>0.437703245020676</v>
+        <v>0.351026042758829</v>
       </c>
       <c r="P4">
-        <v>0.4377032450206761</v>
+        <v>0.351026042758829</v>
       </c>
       <c r="Q4">
-        <v>0.7040860835739999</v>
+        <v>9.168893508297778</v>
       </c>
       <c r="R4">
-        <v>6.336774752166</v>
+        <v>82.52004157468001</v>
       </c>
       <c r="S4">
-        <v>0.0312145650344459</v>
+        <v>0.351026042758829</v>
       </c>
       <c r="T4">
-        <v>0.0312145650344459</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20">
-      <c r="A5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E5">
-        <v>3</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <v>0.3532066666666667</v>
-      </c>
-      <c r="H5">
-        <v>1.05962</v>
-      </c>
-      <c r="I5">
-        <v>0.9286855526214538</v>
-      </c>
-      <c r="J5">
-        <v>0.9286855526214538</v>
-      </c>
-      <c r="K5">
-        <v>2</v>
-      </c>
-      <c r="L5">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M5">
-        <v>13.57958433333333</v>
-      </c>
-      <c r="N5">
-        <v>40.738753</v>
-      </c>
-      <c r="O5">
-        <v>0.2289698008477291</v>
-      </c>
-      <c r="P5">
-        <v>0.2289698008477291</v>
-      </c>
-      <c r="Q5">
-        <v>4.796399717095556</v>
-      </c>
-      <c r="R5">
-        <v>43.16759745386</v>
-      </c>
-      <c r="S5">
-        <v>0.2126409460338975</v>
-      </c>
-      <c r="T5">
-        <v>0.2126409460338975</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20">
-      <c r="A6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E6">
-        <v>3</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6">
-        <v>0.3532066666666667</v>
-      </c>
-      <c r="H6">
-        <v>1.05962</v>
-      </c>
-      <c r="I6">
-        <v>0.9286855526214538</v>
-      </c>
-      <c r="J6">
-        <v>0.9286855526214538</v>
-      </c>
-      <c r="K6">
-        <v>3</v>
-      </c>
-      <c r="L6">
-        <v>1</v>
-      </c>
-      <c r="M6">
-        <v>19.768727</v>
-      </c>
-      <c r="N6">
-        <v>59.30618100000001</v>
-      </c>
-      <c r="O6">
-        <v>0.3333269541315949</v>
-      </c>
-      <c r="P6">
-        <v>0.3333269541315949</v>
-      </c>
-      <c r="Q6">
-        <v>6.982446167913334</v>
-      </c>
-      <c r="R6">
-        <v>62.84201551122001</v>
-      </c>
-      <c r="S6">
-        <v>0.3095559266013261</v>
-      </c>
-      <c r="T6">
-        <v>0.3095559266013262</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20">
-      <c r="A7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" t="s">
-        <v>24</v>
-      </c>
-      <c r="E7">
-        <v>3</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>0.3532066666666667</v>
-      </c>
-      <c r="H7">
-        <v>1.05962</v>
-      </c>
-      <c r="I7">
-        <v>0.9286855526214538</v>
-      </c>
-      <c r="J7">
-        <v>0.9286855526214538</v>
-      </c>
-      <c r="K7">
-        <v>3</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>25.95900466666666</v>
-      </c>
-      <c r="N7">
-        <v>77.87701399999999</v>
-      </c>
-      <c r="O7">
-        <v>0.437703245020676</v>
-      </c>
-      <c r="P7">
-        <v>0.4377032450206761</v>
-      </c>
-      <c r="Q7">
-        <v>9.168893508297776</v>
-      </c>
-      <c r="R7">
-        <v>82.52004157467999</v>
-      </c>
-      <c r="S7">
-        <v>0.4064886799862301</v>
-      </c>
-      <c r="T7">
-        <v>0.4064886799862302</v>
+        <v>0.351026042758829</v>
       </c>
     </row>
   </sheetData>
